--- a/AddressingIssues.xlsx
+++ b/AddressingIssues.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Pages" sheetId="1" r:id="rId1"/>
+    <sheet name="Entry" sheetId="2" r:id="rId2"/>
+    <sheet name="Content Per Page" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Read</t>
   </si>
@@ -43,14 +43,148 @@
   </si>
   <si>
     <t>RD</t>
+  </si>
+  <si>
+    <t>YearUpper</t>
+  </si>
+  <si>
+    <t>DeviceID</t>
+  </si>
+  <si>
+    <t>DeviceState</t>
+  </si>
+  <si>
+    <t>MinutesLower</t>
+  </si>
+  <si>
+    <t>MinutesClassifier</t>
+  </si>
+  <si>
+    <t>MinutesUpper</t>
+  </si>
+  <si>
+    <t>HourLower</t>
+  </si>
+  <si>
+    <t>HourClassifier</t>
+  </si>
+  <si>
+    <t>HourUpper</t>
+  </si>
+  <si>
+    <t>MonthDayLower</t>
+  </si>
+  <si>
+    <t>MonthDayClassifier</t>
+  </si>
+  <si>
+    <t>MonthDayUpper</t>
+  </si>
+  <si>
+    <t>WeekdayLower</t>
+  </si>
+  <si>
+    <t>WeekdayClassifier</t>
+  </si>
+  <si>
+    <t>WeekdayUpper</t>
+  </si>
+  <si>
+    <t>MonthLower</t>
+  </si>
+  <si>
+    <t>MonthClassifier</t>
+  </si>
+  <si>
+    <t>MonthUpper</t>
+  </si>
+  <si>
+    <t>YearLower</t>
+  </si>
+  <si>
+    <t>YearClassifier</t>
+  </si>
+  <si>
+    <t>Enable</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Entry 1</t>
+  </si>
+  <si>
+    <t>Entry 2</t>
+  </si>
+  <si>
+    <t>Entry 3</t>
+  </si>
+  <si>
+    <t>Entry 4</t>
+  </si>
+  <si>
+    <t>Entry 5</t>
+  </si>
+  <si>
+    <t>Entry 6</t>
+  </si>
+  <si>
+    <t>Entry 7</t>
+  </si>
+  <si>
+    <t>Entry 8</t>
+  </si>
+  <si>
+    <t>Entry 9</t>
+  </si>
+  <si>
+    <t>Entry 10</t>
+  </si>
+  <si>
+    <t>Entry 11</t>
+  </si>
+  <si>
+    <t>Entry 12</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Entry Count</t>
+  </si>
+  <si>
+    <t>Lower</t>
+  </si>
+  <si>
+    <t>Upper</t>
+  </si>
+  <si>
+    <t>Content per Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,14 +273,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +293,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -489,17 +626,17 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
@@ -514,76 +651,76 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>76543210</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
         <v>76543210</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1010</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="str">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="str">
         <f>CONCATENATE(A4,B4,C4,D4,E4)</f>
         <v>10100001</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <f>BIN2HEX(F4)</f>
         <v>A1</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="str">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="str">
         <f>CONCATENATE(A4,B4,C4,D4,H4)</f>
         <v>10100000</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <f>BIN2HEX(I4)</f>
         <v>A0</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>0</v>
       </c>
       <c r="M4" t="str">
@@ -596,41 +733,41 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1010</v>
       </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="str">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="str">
         <f t="shared" ref="F5:F11" si="0">CONCATENATE(A5,B5,C5,D5,E5)</f>
         <v>10100011</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" ref="G5:G11" si="1">BIN2HEX(F5)</f>
         <v>A3</v>
       </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="str">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="str">
         <f t="shared" ref="I5:I11" si="2">CONCATENATE(A5,B5,C5,D5,H5)</f>
         <v>10100010</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <f t="shared" ref="J5:J11" si="3">BIN2HEX(I5)</f>
         <v>A2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>1</v>
       </c>
       <c r="M5" t="str">
@@ -643,41 +780,41 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1010</v>
       </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="str">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10100101</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A5</v>
       </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="str">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10100100</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>2</v>
       </c>
       <c r="M6" t="str">
@@ -690,41 +827,41 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1010</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="str">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10100111</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A7</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="str">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10100110</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A6</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>3</v>
       </c>
       <c r="M7" t="str">
@@ -737,41 +874,41 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1010</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="str">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10101001</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <f t="shared" si="1"/>
         <v>A9</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="str">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10101000</v>
       </c>
-      <c r="J8" s="2" t="str">
+      <c r="J8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>A8</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>4</v>
       </c>
       <c r="M8" t="str">
@@ -784,41 +921,41 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>1010</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="str">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10101011</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <f t="shared" si="1"/>
         <v>AB</v>
       </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="str">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10101010</v>
       </c>
-      <c r="J9" s="2" t="str">
+      <c r="J9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>AA</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>5</v>
       </c>
       <c r="M9" t="str">
@@ -831,41 +968,41 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1010</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="str">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10101101</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <f t="shared" si="1"/>
         <v>AD</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="str">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10101100</v>
       </c>
-      <c r="J10" s="2" t="str">
+      <c r="J10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>AC</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>6</v>
       </c>
       <c r="M10" t="str">
@@ -878,41 +1015,41 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1010</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="str">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>10101111</v>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="1" t="str">
         <f t="shared" si="1"/>
         <v>AF</v>
       </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="str">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="str">
         <f t="shared" si="2"/>
         <v>10101110</v>
       </c>
-      <c r="J11" s="2" t="str">
+      <c r="J11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>AE</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>7</v>
       </c>
       <c r="M11" t="str">
@@ -937,24 +1074,526 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <f>C4+1</f>
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>C4+B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <f t="shared" ref="A6:A17" si="0">C5+1</f>
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <f>C5+B6</f>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C17" si="1">C6+B7</f>
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="B10">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B14">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="B17">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AddressingIssues.xlsx
+++ b/AddressingIssues.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
     <sheet name="Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Content Per Page" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>Read</t>
   </si>
@@ -169,6 +169,63 @@
   </si>
   <si>
     <t>Content per Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /*      unsigned char   ss ;    // seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned char   mn ;    // minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned char   hh ;    // hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned char   md ;    // day in month, from 1 to 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned char   wd ;    // day in week, monday=0, tuesday=1, .... sunday=6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned char   mo ;    // month number, from 1 to 12 (and not from 0 to 11 as with unix C time !)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        unsigned int    yy ;    // year Y2K compliant, from 1892 to 2038*/</t>
+  </si>
+  <si>
+    <t>case 255: return "*";</t>
+  </si>
+  <si>
+    <t>case 254: return "-";</t>
+  </si>
+  <si>
+    <t>case 253: return "/";</t>
+  </si>
+  <si>
+    <t>case 252: return "On";</t>
+  </si>
+  <si>
+    <t>case 251: return "Off";</t>
+  </si>
+  <si>
+    <t>case 250: return "";</t>
+  </si>
+  <si>
+    <t>ASTERISK = 255,</t>
+  </si>
+  <si>
+    <t>DASH = 254,</t>
+  </si>
+  <si>
+    <t>SLASH = 253,</t>
+  </si>
+  <si>
+    <t>ON = 252,</t>
+  </si>
+  <si>
+    <t>OFF = 251,</t>
+  </si>
+  <si>
+    <t>EMPTY = 250</t>
   </si>
 </sst>
 </file>
@@ -192,12 +249,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -273,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -297,6 +360,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +658,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,7 +1151,7 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1098,235 +1162,292 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="9">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="9">
         <v>17</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="9">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="9">
         <v>19</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="9">
         <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>

--- a/AddressingIssues.xlsx
+++ b/AddressingIssues.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="1"/>
@@ -11,12 +11,12 @@
     <sheet name="Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Content Per Page" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Read</t>
   </si>
@@ -226,6 +226,69 @@
   </si>
   <si>
     <t>EMPTY = 250</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>mnl</t>
+  </si>
+  <si>
+    <t>mnc</t>
+  </si>
+  <si>
+    <t>mnu</t>
+  </si>
+  <si>
+    <t>hhl</t>
+  </si>
+  <si>
+    <t>hhc</t>
+  </si>
+  <si>
+    <t>hhu</t>
+  </si>
+  <si>
+    <t>mdl</t>
+  </si>
+  <si>
+    <t>mdc</t>
+  </si>
+  <si>
+    <t>mdu</t>
+  </si>
+  <si>
+    <t>wdl</t>
+  </si>
+  <si>
+    <t>wdc</t>
+  </si>
+  <si>
+    <t>wdu</t>
+  </si>
+  <si>
+    <t>mol</t>
+  </si>
+  <si>
+    <t>moc</t>
+  </si>
+  <si>
+    <t>mou</t>
+  </si>
+  <si>
+    <t>yyl</t>
+  </si>
+  <si>
+    <t>yyc</t>
+  </si>
+  <si>
+    <t>yyu</t>
   </si>
 </sst>
 </file>
@@ -342,6 +405,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,7 +424,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,38 +738,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="7"/>
       <c r="M2" t="s">
         <v>8</v>
       </c>
@@ -1138,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1149,9 +1212,12 @@
     <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -1162,11 +1228,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" t="s">
@@ -1175,12 +1241,30 @@
       <c r="D2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="N2" t="str">
+        <f t="shared" ref="N2:N22" si="0">CONCATENATE("ADDR_",UPPER(C2), " = ",B2,",")</f>
+        <v>ADDR_ENABLE = 0,</v>
+      </c>
+      <c r="O2" t="str">
+        <f>CONCATENATE("ADDR_",UPPER(C2))</f>
+        <v>ADDR_ENABLE</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <f>CONCATENATE("entryStruct-&gt;",P2," = entry[",Q2,"]; // ", C2)</f>
+        <v>entryStruct-&gt;en = entry[0]; // Enable</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -1189,12 +1273,30 @@
       <c r="D3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="N3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_DEVICEID = 1,</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O22" si="1">CONCATENATE("ADDR_",UPPER(C3))</f>
+        <v>ADDR_DEVICEID</v>
+      </c>
+      <c r="P3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R22" si="2">CONCATENATE("entryStruct-&gt;",P3," = entry[",Q3,"]; // ", C3)</f>
+        <v>entryStruct-&gt;id = entry[1]; // DeviceID</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -1203,12 +1305,30 @@
       <c r="D4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="N4" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_DEVICESTATE = 2,</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_DEVICESTATE</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;ds = entry[2]; // DeviceState</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
@@ -1217,26 +1337,62 @@
       <c r="D5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="N5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MINUTESLOWER = 3,</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MINUTESLOWER</v>
+      </c>
+      <c r="P5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mnl = entry[3]; // MinutesLower</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MINUTESCLASSIFIER = 4,</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MINUTESCLASSIFIER</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mnc = entry[4]; // MinutesClassifier</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" t="s">
@@ -1245,12 +1401,30 @@
       <c r="D7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MINUTESUPPER = 5,</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MINUTESUPPER</v>
+      </c>
+      <c r="P7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mnu = entry[5]; // MinutesUpper</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" t="s">
@@ -1259,23 +1433,59 @@
       <c r="D8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="N8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_HOURLOWER = 6,</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_HOURLOWER</v>
+      </c>
+      <c r="P8" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;hhl = entry[6]; // HourLower</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_HOURCLASSIFIER = 7,</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_HOURCLASSIFIER</v>
+      </c>
+      <c r="P9" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;hhc = entry[7]; // HourClassifier</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" t="s">
@@ -1284,12 +1494,30 @@
       <c r="D10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_HOURUPPER = 8,</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_HOURUPPER</v>
+      </c>
+      <c r="P10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;hhu = entry[8]; // HourUpper</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" t="s">
@@ -1298,26 +1526,62 @@
       <c r="D11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="N11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MONTHDAYLOWER = 9,</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHDAYLOWER</v>
+      </c>
+      <c r="P11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mdl = entry[9]; // MonthDayLower</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MONTHDAYCLASSIFIER = 10,</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHDAYCLASSIFIER</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mdc = entry[10]; // MonthDayClassifier</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
       <c r="C13" t="s">
@@ -1326,12 +1590,30 @@
       <c r="D13" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MONTHDAYUPPER = 11,</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHDAYUPPER</v>
+      </c>
+      <c r="P13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mdu = entry[11]; // MonthDayUpper</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
       <c r="C14" t="s">
@@ -1340,37 +1622,91 @@
       <c r="D14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="N14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_WEEKDAYLOWER = 12,</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_WEEKDAYLOWER</v>
+      </c>
+      <c r="P14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;wdl = entry[12]; // WeekdayLower</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_WEEKDAYCLASSIFIER = 13,</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_WEEKDAYCLASSIFIER</v>
+      </c>
+      <c r="P15" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;wdc = entry[13]; // WeekdayClassifier</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_WEEKDAYUPPER = 14,</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_WEEKDAYUPPER</v>
+      </c>
+      <c r="P16" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;wdu = entry[14]; // WeekdayUpper</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
       <c r="C17" t="s">
@@ -1379,26 +1715,62 @@
       <c r="D17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="N17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>ADDR_MONTHLOWER = 15,</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHLOWER</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mol = entry[15]; // MonthLower</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="N18" t="str">
+        <f>CONCATENATE("ADDR_",UPPER(C18), " = ",B18,",")</f>
+        <v>ADDR_MONTHCLASSIFIER = 16,</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHCLASSIFIER</v>
+      </c>
+      <c r="P18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;moc = entry[16]; // MonthClassifier</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -1407,12 +1779,30 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="N19" t="str">
+        <f t="shared" ref="N19:N22" si="3">CONCATENATE("ADDR_",UPPER(C19), " = ",B19,",")</f>
+        <v>ADDR_MONTHUPPER = 17,</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_MONTHUPPER</v>
+      </c>
+      <c r="P19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="R19" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;mou = entry[17]; // MonthUpper</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="3">
         <v>18</v>
       </c>
       <c r="C20" t="s">
@@ -1421,26 +1811,62 @@
       <c r="D20" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="N20" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>ADDR_YEARLOWER = 18,</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_YEARLOWER</v>
+      </c>
+      <c r="P20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="R20" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;yyl = entry[18]; // YearLower</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="N21" t="str">
+        <f t="shared" si="3"/>
+        <v>ADDR_YEARCLASSIFIER = 19,</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_YEARCLASSIFIER</v>
+      </c>
+      <c r="P21" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="R21" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;yyc = entry[19]; // YearClassifier</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="3">
         <v>20</v>
       </c>
       <c r="C22" t="s">
@@ -1448,6 +1874,24 @@
       </c>
       <c r="D22" t="s">
         <v>69</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="3"/>
+        <v>ADDR_YEARUPPER = 20,</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>ADDR_YEARUPPER</v>
+      </c>
+      <c r="P22" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" si="2"/>
+        <v>entryStruct-&gt;yyu = entry[20]; // YearUpper</v>
       </c>
     </row>
   </sheetData>
@@ -1470,12 +1914,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">

--- a/AddressingIssues.xlsx
+++ b/AddressingIssues.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
     <sheet name="Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Content Per Page" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
   <si>
     <t>Read</t>
   </si>
@@ -289,6 +290,186 @@
   </si>
   <si>
     <t>yyu</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
 </sst>
 </file>
@@ -399,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -424,6 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1203,8 +1385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2161,4 +2343,1045 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="str">
+        <f>HEX2BIN(A1,7)</f>
+        <v>0000000</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(1, B1)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D1" t="str">
+        <f>BIN2HEX(C1,2)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:B60" si="0">HEX2BIN(A2,7)</f>
+        <v>0000001</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C60" si="1">CONCATENATE(1, B2)</f>
+        <v>10000001</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D60" si="2">BIN2HEX(C2,2)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>0000010</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>10000010</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>0000011</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>10000011</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>0000100</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="1"/>
+        <v>10000100</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>0000101</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="1"/>
+        <v>10000101</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000110</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="1"/>
+        <v>10000110</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>0000111</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="1"/>
+        <v>10000111</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>0001000</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="1"/>
+        <v>10001000</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>0001001</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="1"/>
+        <v>10001001</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>0010000</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="1"/>
+        <v>10010000</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>0010001</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="1"/>
+        <v>10010001</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>0010010</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="1"/>
+        <v>10010010</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>0010011</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>10010011</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>0010100</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>10010100</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>0010101</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>10010101</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>0010110</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>10010110</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>0010111</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="1"/>
+        <v>10010111</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>0011000</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="1"/>
+        <v>10011000</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>0011001</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="1"/>
+        <v>10011001</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>0100000</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="1"/>
+        <v>10100000</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="2"/>
+        <v>A0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>0100001</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="1"/>
+        <v>10100001</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="2"/>
+        <v>A1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>0100010</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="1"/>
+        <v>10100010</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="2"/>
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>0100011</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="1"/>
+        <v>10100011</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>A3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>0100100</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="1"/>
+        <v>10100100</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="2"/>
+        <v>A4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>0100101</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="1"/>
+        <v>10100101</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="2"/>
+        <v>A5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>0100110</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="1"/>
+        <v>10100110</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="2"/>
+        <v>A6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>0100111</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="1"/>
+        <v>10100111</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="2"/>
+        <v>A7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>0101000</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="1"/>
+        <v>10101000</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="2"/>
+        <v>A8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>0101001</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="1"/>
+        <v>10101001</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="2"/>
+        <v>A9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>0110000</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="1"/>
+        <v>10110000</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="2"/>
+        <v>B0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>0110001</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="1"/>
+        <v>10110001</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="2"/>
+        <v>B1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>0110010</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="1"/>
+        <v>10110010</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="2"/>
+        <v>B2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>0110011</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="1"/>
+        <v>10110011</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="2"/>
+        <v>B3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>0110100</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="1"/>
+        <v>10110100</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="2"/>
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>0110101</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="1"/>
+        <v>10110101</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="2"/>
+        <v>B5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>0110110</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="1"/>
+        <v>10110110</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="2"/>
+        <v>B6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>0110111</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="1"/>
+        <v>10110111</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="2"/>
+        <v>B7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>0111000</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="1"/>
+        <v>10111000</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="2"/>
+        <v>B8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>0111001</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="1"/>
+        <v>10111001</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="2"/>
+        <v>B9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>1000000</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="1"/>
+        <v>11000000</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="2"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>1000001</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="1"/>
+        <v>11000001</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="2"/>
+        <v>C1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>1000010</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="1"/>
+        <v>11000010</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="2"/>
+        <v>C2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>1000011</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="1"/>
+        <v>11000011</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="2"/>
+        <v>C3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>1000100</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="1"/>
+        <v>11000100</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="2"/>
+        <v>C4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>1000101</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="1"/>
+        <v>11000101</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="2"/>
+        <v>C5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>1000110</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="1"/>
+        <v>11000110</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="2"/>
+        <v>C6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>1000111</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="1"/>
+        <v>11000111</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="2"/>
+        <v>C7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>1001000</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="1"/>
+        <v>11001000</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="2"/>
+        <v>C8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>1001001</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="1"/>
+        <v>11001001</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="2"/>
+        <v>C9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>1010000</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="1"/>
+        <v>11010000</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="2"/>
+        <v>D0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>1010001</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="1"/>
+        <v>11010001</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="2"/>
+        <v>D1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>1010010</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="1"/>
+        <v>11010010</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="2"/>
+        <v>D2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>1010011</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>11010011</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="2"/>
+        <v>D3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>1010100</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="1"/>
+        <v>11010100</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="2"/>
+        <v>D4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>1010101</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="1"/>
+        <v>11010101</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="2"/>
+        <v>D5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>1010110</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="1"/>
+        <v>11010110</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="2"/>
+        <v>D6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>1010111</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="1"/>
+        <v>11010111</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="2"/>
+        <v>D7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>1011000</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="1"/>
+        <v>11011000</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="2"/>
+        <v>D8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>1011001</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="1"/>
+        <v>11011001</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="2"/>
+        <v>D9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/AddressingIssues.xlsx
+++ b/AddressingIssues.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="20115" windowHeight="9270" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
     <sheet name="Entry" sheetId="2" r:id="rId2"/>
     <sheet name="Content Per Page" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Override" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="173">
   <si>
     <t>Read</t>
   </si>
@@ -470,6 +472,72 @@
   </si>
   <si>
     <t>59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages </t>
+  </si>
+  <si>
+    <t>Address/Page</t>
+  </si>
+  <si>
+    <t>Entries per Page</t>
+  </si>
+  <si>
+    <t>Total Entries</t>
+  </si>
+  <si>
+    <t>Test Dummies</t>
+  </si>
+  <si>
+    <t>Override System</t>
+  </si>
+  <si>
+    <t>Write By PC</t>
+  </si>
+  <si>
+    <t>Initiate override mode.</t>
+  </si>
+  <si>
+    <t>Usb write</t>
+  </si>
+  <si>
+    <t>Device ID</t>
+  </si>
+  <si>
+    <t>0 or 1</t>
+  </si>
+  <si>
+    <t>Device State</t>
+  </si>
+  <si>
+    <t>Micro to PC</t>
+  </si>
+  <si>
+    <t>RD0_bit;</t>
+  </si>
+  <si>
+    <t>RD1_bit;</t>
+  </si>
+  <si>
+    <t>RD2_bit;</t>
+  </si>
+  <si>
+    <t>RD3_bit;</t>
+  </si>
+  <si>
+    <t>RD4_bit;</t>
+  </si>
+  <si>
+    <t>RD5_bit;</t>
+  </si>
+  <si>
+    <t>RD6_bit;</t>
+  </si>
+  <si>
+    <t>RD7_bit;</t>
+  </si>
+  <si>
+    <t>Bit Number</t>
   </si>
 </sst>
 </file>
@@ -507,7 +575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -576,11 +644,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -606,6 +711,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -917,9 +1032,10 @@
     <col min="10" max="10" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -934,7 +1050,7 @@
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -958,8 +1074,15 @@
       <c r="N2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q2">
+        <f>2^3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -993,8 +1116,15 @@
       <c r="K3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="P3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q3">
+        <f>2^8</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1040,8 +1170,15 @@
         <f>"0x"&amp;J4</f>
         <v>0xA0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="P4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q4">
+        <f>ROUNDDOWN(Q3/21,0)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>1010</v>
       </c>
@@ -1087,8 +1224,15 @@
         <f t="shared" ref="N5:N11" si="5">"0x"&amp;J5</f>
         <v>0xA2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="P5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q5">
+        <f>Q4*Q2</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>1010</v>
       </c>
@@ -1135,7 +1279,7 @@
         <v>0xA4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>1010</v>
       </c>
@@ -1181,8 +1325,15 @@
         <f t="shared" si="5"/>
         <v>0xA6</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="P7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7">
+        <f>Q5/16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>1010</v>
       </c>
@@ -1229,7 +1380,7 @@
         <v>0xA8</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>1010</v>
       </c>
@@ -1276,7 +1427,7 @@
         <v>0xAA</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>1010</v>
       </c>
@@ -1323,7 +1474,7 @@
         <v>0xAC</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>1010</v>
       </c>
@@ -1386,7 +1537,7 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2349,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,4 +3535,602 @@
     <ignoredError sqref="A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>76543210</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>76543210</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="11"/>
+      <c r="B4" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <f>CONCATENATE(B4,C4,D4,E4,F4)</f>
+        <v>10100001</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>BIN2HEX(G4)</f>
+        <v>A1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>CONCATENATE(B4,C4,D4,E4,I4)</f>
+        <v>10100000</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f>BIN2HEX(J4)</f>
+        <v>A0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <f t="shared" ref="G5:G11" si="0">CONCATENATE(B5,C5,D5,E5,F5)</f>
+        <v>10100011</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H11" si="1">BIN2HEX(G5)</f>
+        <v>A3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" ref="J5:J11" si="2">CONCATENATE(B5,C5,D5,E5,I5)</f>
+        <v>10100010</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" ref="K5:K11" si="3">BIN2HEX(J5)</f>
+        <v>A2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10100101</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10100100</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A4</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10100111</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10100110</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10101001</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>A9</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10101000</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>A8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10101011</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AB</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10101010</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AA</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10101101</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AD</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10101100</v>
+      </c>
+      <c r="K10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AC</v>
+      </c>
+      <c r="L10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>10101111</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>AF</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>10101110</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>AE</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="I2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>